--- a/artifacts/model_trainer/test/test_x_dates.xlsx
+++ b/artifacts/model_trainer/test/test_x_dates.xlsx
@@ -591,94 +591,94 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45581</v>
+        <v>45594</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45582</v>
+        <v>45595</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45583</v>
+        <v>45596</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45584</v>
+        <v>45597</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45585</v>
+        <v>45598</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45586</v>
+        <v>45599</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45587</v>
+        <v>45600</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45588</v>
+        <v>45601</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45589</v>
+        <v>45602</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45590</v>
+        <v>45603</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45591</v>
+        <v>45604</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45592</v>
+        <v>45605</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>45594</v>
+        <v>45607</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45595</v>
+        <v>45608</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>45596</v>
+        <v>45609</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>45597</v>
+        <v>45610</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>45598</v>
+        <v>45611</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>45599</v>
+        <v>45612</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>45600</v>
+        <v>45613</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>45601</v>
+        <v>45614</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>45602</v>
+        <v>45615</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>45603</v>
+        <v>45616</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>45604</v>
+        <v>45617</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>45605</v>
+        <v>45618</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45606</v>
+        <v>45619</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>45607</v>
+        <v>45620</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>45608</v>
+        <v>45621</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>45609</v>
+        <v>45622</v>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>45610</v>
+        <v>45623</v>
       </c>
     </row>
   </sheetData>
